--- a/works/eg/product-list.xlsx
+++ b/works/eg/product-list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61699EDC-F9FE-2C4A-86DB-34F6DEAD4152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDCB134-1375-DA42-9DCF-348F1F341DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23400" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5060" yWindow="460" windowWidth="23400" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Общество с ограниченой ответственностью</t>
   </si>
@@ -90,13 +90,25 @@
   </si>
   <si>
     <t>Средний Говядина ГОСТ 325 гр</t>
+  </si>
+  <si>
+    <t>Говядина СТО (70% гов., 30% свинина), 338 гр</t>
+  </si>
+  <si>
+    <t>Говядина СТО (70% гов., 30% свинина), 325 гр</t>
+  </si>
+  <si>
+    <t>Каша гречневая с говядиной ГОСТ 340 г.</t>
+  </si>
+  <si>
+    <t>Каша перловая с говядиной ГОСТ 340 г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +201,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -217,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -315,11 +333,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -424,6 +464,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -821,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1113,7 @@
         <v>338</v>
       </c>
       <c r="F18" s="27">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1081,7 +1133,7 @@
         <v>325</v>
       </c>
       <c r="F19" s="27">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,6 +1214,80 @@
       </c>
       <c r="F23" s="27">
         <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>13</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="13">
+        <v>4620146841617</v>
+      </c>
+      <c r="D24" s="13">
+        <v>9</v>
+      </c>
+      <c r="E24" s="14">
+        <v>338</v>
+      </c>
+      <c r="F24" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>14</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4620146841587</v>
+      </c>
+      <c r="D25" s="13">
+        <v>8</v>
+      </c>
+      <c r="E25" s="14">
+        <v>325</v>
+      </c>
+      <c r="F25" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="40">
+        <v>15</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13">
+        <v>9</v>
+      </c>
+      <c r="E27" s="14">
+        <v>340</v>
+      </c>
+      <c r="F27" s="41">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="40">
+        <v>16</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="13">
+        <v>9</v>
+      </c>
+      <c r="E28" s="14">
+        <v>340</v>
+      </c>
+      <c r="F28" s="41">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
